--- a/data dependiente.xlsx
+++ b/data dependiente.xlsx
@@ -14,16 +14,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="173">
   <si>
+    <t>Variable dependiente</t>
+  </si>
+  <si>
     <t xml:space="preserve">País </t>
   </si>
   <si>
-    <t>Variable dependiente</t>
+    <t>Número de protestas (2013-2018)</t>
   </si>
   <si>
     <t>Protestas</t>
   </si>
   <si>
-    <t>Número de protestas (2013-2018)</t>
+    <t>Variables independientes</t>
+  </si>
+  <si>
+    <t>Derechos políticos (2013-2017)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -32,43 +38,37 @@
     <t>Albania</t>
   </si>
   <si>
-    <t>Variables independientes</t>
-  </si>
-  <si>
-    <t>Derechos políticos (2013-2017)</t>
+    <t>Libertades civiles (2013-2017)</t>
+  </si>
+  <si>
+    <t>Coeficiente GINI (2010-2017)</t>
   </si>
   <si>
     <t>Algeria</t>
   </si>
   <si>
-    <t>Libertades civiles (2013-2017)</t>
-  </si>
-  <si>
-    <t>Coeficiente GINI (2010-2017)</t>
-  </si>
-  <si>
     <t xml:space="preserve">PBI (2014-2018) </t>
   </si>
   <si>
     <t>Tasa de desempleo (2014-2018)</t>
   </si>
   <si>
+    <t xml:space="preserve">Gobierno representativo </t>
+  </si>
+  <si>
+    <t>Administración imparcial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control de gobierno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derechos fundamentales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compromiso con la participación civil </t>
+  </si>
+  <si>
     <t>Angola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gobierno representativo </t>
-  </si>
-  <si>
-    <t>Administración imparcial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control de gobierno </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derechos fundamentales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compromiso con la participación civil </t>
   </si>
   <si>
     <t>Argentina</t>
@@ -547,13 +547,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -673,31 +673,31 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -706,64 +706,64 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
@@ -992,34 +992,34 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
         <v>22.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
         <v>18.0</v>
       </c>
       <c r="F4" s="8"/>
@@ -1028,9 +1028,9 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
         <v>7.0</v>
       </c>
       <c r="F5" s="8"/>
@@ -1038,10 +1038,10 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>17.0</v>
       </c>
       <c r="D6" s="10"/>
@@ -1054,15 +1054,15 @@
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>13.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -1070,23 +1070,23 @@
       <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>18.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>84.0</v>
       </c>
     </row>
@@ -1094,15 +1094,15 @@
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>12.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>10.0</v>
       </c>
       <c r="D13" s="10"/>
@@ -1115,7 +1115,7 @@
       <c r="A14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>10.0</v>
       </c>
       <c r="F14" s="8"/>
@@ -1123,18 +1123,18 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>39.0</v>
       </c>
       <c r="D16" s="10"/>
@@ -1144,10 +1144,10 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>9.0</v>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       <c r="A18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <v>0.0</v>
       </c>
       <c r="F18" s="8"/>
@@ -1163,10 +1163,10 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <v>64.0</v>
       </c>
       <c r="D19" s="10"/>
@@ -1176,10 +1176,10 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <v>9.0</v>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <v>11.0</v>
       </c>
       <c r="F21" s="8"/>
@@ -1198,7 +1198,7 @@
       <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>47.0</v>
       </c>
       <c r="F22" s="8"/>
@@ -1206,10 +1206,10 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>24.0</v>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       <c r="A24" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>8.0</v>
       </c>
       <c r="F24" s="8"/>
@@ -1228,7 +1228,7 @@
       <c r="A25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>14.0</v>
       </c>
       <c r="D25" s="10"/>
@@ -1241,7 +1241,7 @@
       <c r="A26" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       <c r="A27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <v>12.0</v>
       </c>
       <c r="F27" s="8"/>
@@ -1260,7 +1260,7 @@
       <c r="A28" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <v>7.0</v>
       </c>
       <c r="D28" s="10"/>
@@ -1286,7 +1286,7 @@
       <c r="A30" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <v>95.0</v>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       <c r="A32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <v>1.0</v>
       </c>
       <c r="D32" s="10"/>
@@ -1320,7 +1320,7 @@
       <c r="A33" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <v>8.0</v>
       </c>
       <c r="D33" s="10"/>
@@ -1333,7 +1333,7 @@
       <c r="A34" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <v>10.0</v>
       </c>
       <c r="D34" s="10"/>
@@ -1346,7 +1346,7 @@
       <c r="A35" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <v>1.0</v>
       </c>
       <c r="D35" s="10"/>
@@ -1359,7 +1359,7 @@
       <c r="A36" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <v>3.0</v>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       <c r="A37" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <v>94.0</v>
       </c>
       <c r="D37" s="10"/>
@@ -1380,7 +1380,7 @@
       <c r="A38" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <v>29.0</v>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       <c r="A39" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <v>11.0</v>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       <c r="A40" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       <c r="A41" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <v>1.0</v>
       </c>
       <c r="F41" s="8"/>
@@ -1415,7 +1415,7 @@
       <c r="A42" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <v>27.0</v>
       </c>
       <c r="D42" s="10"/>
@@ -1428,7 +1428,7 @@
       <c r="A43" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <v>10.0</v>
       </c>
       <c r="D43" s="10"/>
@@ -1441,7 +1441,7 @@
       <c r="A44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <v>54.0</v>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       <c r="A45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <v>4.0</v>
       </c>
       <c r="D45" s="10"/>
@@ -1462,7 +1462,7 @@
       <c r="A46" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       <c r="A47" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <v>2.0</v>
       </c>
       <c r="F47" s="8"/>
@@ -1481,7 +1481,7 @@
       <c r="A48" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>2.0</v>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       <c r="A49" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <v>14.0</v>
       </c>
       <c r="F49" s="8"/>
@@ -1500,7 +1500,7 @@
       <c r="A50" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <v>6.0</v>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       <c r="A51" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <v>119.0</v>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       <c r="A52" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <v>5.0</v>
       </c>
       <c r="F52" s="8"/>
@@ -1527,7 +1527,7 @@
       <c r="A53" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <v>9.0</v>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       <c r="A54" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <v>10.0</v>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       <c r="A55" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <v>187.0</v>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       <c r="A56" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <v>24.0</v>
       </c>
       <c r="F56" s="8"/>
@@ -1562,7 +1562,7 @@
       <c r="A57" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <v>94.0</v>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       <c r="A58" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <v>31.0</v>
       </c>
       <c r="D58" s="10"/>
@@ -1583,7 +1583,7 @@
       <c r="A59" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="4">
         <v>29.0</v>
       </c>
       <c r="F59" s="8"/>
@@ -1594,7 +1594,7 @@
       <c r="A60" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="4">
         <v>4.0</v>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       <c r="A61" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <v>8.0</v>
       </c>
       <c r="D61" s="10"/>
@@ -1615,7 +1615,7 @@
       <c r="A62" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <v>27.0</v>
       </c>
       <c r="D62" s="10"/>
@@ -1628,7 +1628,7 @@
       <c r="A63" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <v>28.0</v>
       </c>
       <c r="D63" s="10"/>
@@ -1641,7 +1641,7 @@
       <c r="A64" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <v>19.0</v>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
       <c r="A65" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="4">
         <v>55.0</v>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       <c r="A66" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <v>17.0</v>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       <c r="A67" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <v>24.0</v>
       </c>
       <c r="F67" s="8"/>
@@ -1676,7 +1676,7 @@
       <c r="A68" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <v>28.0</v>
       </c>
       <c r="F68" s="8"/>
@@ -1687,7 +1687,7 @@
       <c r="A69" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <v>121.0</v>
       </c>
       <c r="D69" s="10"/>
@@ -1700,7 +1700,7 @@
       <c r="A70" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="4">
         <v>30.0</v>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
       <c r="A71" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <v>11.0</v>
       </c>
       <c r="F71" s="8"/>
@@ -1732,7 +1732,7 @@
       <c r="A73" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <v>18.0</v>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
       <c r="A74" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <v>12.0</v>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
       <c r="A75" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="4">
         <v>3.0</v>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       <c r="A76" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="4">
         <v>185.0</v>
       </c>
       <c r="D76" s="10"/>
@@ -1769,7 +1769,7 @@
       <c r="A77" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="4">
         <v>9.0</v>
       </c>
     </row>
@@ -1777,7 +1777,7 @@
       <c r="A78" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="4">
         <v>11.0</v>
       </c>
       <c r="F78" s="8"/>
@@ -1788,7 +1788,7 @@
       <c r="A79" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="4">
         <v>37.0</v>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       <c r="A80" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       <c r="A81" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="4">
         <v>5.0</v>
       </c>
     </row>
@@ -1812,7 +1812,7 @@
       <c r="A82" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="4">
         <v>15.0</v>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       <c r="A83" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="4">
         <v>1.0</v>
       </c>
       <c r="F83" s="8"/>
@@ -1831,7 +1831,7 @@
       <c r="A84" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="4">
         <v>24.0</v>
       </c>
       <c r="F84" s="8"/>
@@ -1842,7 +1842,7 @@
       <c r="A85" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="4">
         <v>8.0</v>
       </c>
       <c r="F85" s="8"/>
@@ -1853,7 +1853,7 @@
       <c r="A86" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="4">
         <v>2.0</v>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="A87" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="4">
         <v>0.0</v>
       </c>
       <c r="D87" s="10"/>
@@ -1874,7 +1874,7 @@
       <c r="A88" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="4">
         <v>16.0</v>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
       <c r="A89" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="4">
         <v>5.0</v>
       </c>
       <c r="D89" s="10"/>
@@ -1895,7 +1895,7 @@
       <c r="A90" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <v>11.0</v>
       </c>
       <c r="F90" s="8"/>
@@ -1906,7 +1906,7 @@
       <c r="A91" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="4">
         <v>44.0</v>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       <c r="A92" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="4">
         <v>8.0</v>
       </c>
     </row>
@@ -1922,7 +1922,7 @@
       <c r="A93" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <v>14.0</v>
       </c>
       <c r="F93" s="8"/>
@@ -1933,7 +1933,7 @@
       <c r="A94" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="4">
         <v>2.0</v>
       </c>
       <c r="F94" s="8"/>
@@ -1941,10 +1941,10 @@
       <c r="H94" s="8"/>
     </row>
     <row r="95">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="4">
         <v>40.0</v>
       </c>
       <c r="D95" s="10"/>
@@ -1954,10 +1954,10 @@
       <c r="H95" s="8"/>
     </row>
     <row r="96">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="4">
         <v>37.0</v>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       <c r="A97" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="4">
         <v>14.0</v>
       </c>
       <c r="F97" s="8"/>
@@ -1976,7 +1976,7 @@
       <c r="A98" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="4">
         <v>25.0</v>
       </c>
       <c r="F98" s="8"/>
@@ -1984,10 +1984,10 @@
       <c r="H98" s="8"/>
     </row>
     <row r="99">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="4">
         <v>29.0</v>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       <c r="A100" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="4">
         <v>69.0</v>
       </c>
       <c r="F100" s="8"/>
@@ -2003,18 +2003,18 @@
       <c r="H100" s="8"/>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="4">
         <v>27.0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="4">
         <v>3.0</v>
       </c>
       <c r="D102" s="10"/>
@@ -2024,10 +2024,10 @@
       <c r="H102" s="8"/>
     </row>
     <row r="103">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="4">
         <v>8.0</v>
       </c>
       <c r="D103" s="10"/>
@@ -2040,7 +2040,7 @@
       <c r="A104" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="4">
         <v>2.0</v>
       </c>
       <c r="F104" s="8"/>
@@ -2051,7 +2051,7 @@
       <c r="A105" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="4">
         <v>106.0</v>
       </c>
       <c r="F105" s="8"/>
@@ -2062,7 +2062,7 @@
       <c r="A106" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
       <c r="A107" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       <c r="A108" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="4">
         <v>3.0</v>
       </c>
     </row>
@@ -2086,15 +2086,15 @@
       <c r="A109" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="4">
         <v>32.0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="4">
         <v>6.0</v>
       </c>
       <c r="D110" s="10"/>
@@ -2107,7 +2107,7 @@
       <c r="A111" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="4">
         <v>6.0</v>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       <c r="A112" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="4">
         <v>15.0</v>
       </c>
       <c r="D112" s="10"/>
@@ -2125,10 +2125,10 @@
       <c r="H112" s="8"/>
     </row>
     <row r="113">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="4">
         <v>13.0</v>
       </c>
       <c r="D113" s="10"/>
@@ -2138,10 +2138,10 @@
       <c r="H113" s="8"/>
     </row>
     <row r="114">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="4">
         <v>21.0</v>
       </c>
     </row>
@@ -2149,31 +2149,31 @@
       <c r="A115" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="4">
         <v>25.0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       <c r="A119" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="4">
         <v>49.0</v>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       <c r="A120" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="4">
         <v>47.0</v>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       <c r="A121" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="4">
         <v>2.0</v>
       </c>
       <c r="F121" s="8"/>
@@ -2205,10 +2205,10 @@
       <c r="H121" s="8"/>
     </row>
     <row r="122">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="4">
         <v>4.0</v>
       </c>
       <c r="F122" s="8"/>
@@ -2219,7 +2219,7 @@
       <c r="A123" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="4">
         <v>4.0</v>
       </c>
       <c r="F123" s="8"/>
@@ -2230,7 +2230,7 @@
       <c r="A124" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="4">
         <v>4.0</v>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       <c r="A125" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="4">
         <v>13.0</v>
       </c>
       <c r="F125" s="8"/>
@@ -2249,7 +2249,7 @@
       <c r="A126" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="4">
         <v>11.0</v>
       </c>
     </row>
@@ -2257,15 +2257,15 @@
       <c r="A127" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="4">
         <v>8.0</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="4">
         <v>8.0</v>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
       <c r="A129" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="4">
         <v>0.0</v>
       </c>
       <c r="F129" s="8"/>
@@ -2284,7 +2284,7 @@
       <c r="A130" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="4">
         <v>34.0</v>
       </c>
       <c r="F130" s="8"/>
@@ -2295,7 +2295,7 @@
       <c r="A131" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="4">
         <v>24.0</v>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       <c r="A132" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="4">
         <v>0.0</v>
       </c>
       <c r="D132" s="10"/>
@@ -2316,15 +2316,15 @@
       <c r="A133" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="4">
         <v>54.0</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="4">
         <v>33.0</v>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       <c r="A135" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="4">
         <v>14.0</v>
       </c>
       <c r="F135" s="8"/>
@@ -2340,10 +2340,10 @@
       <c r="H135" s="8"/>
     </row>
     <row r="136">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="4">
         <v>1.0</v>
       </c>
       <c r="D136" s="10"/>
@@ -2356,7 +2356,7 @@
       <c r="A137" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="4">
         <v>5.0</v>
       </c>
       <c r="D137" s="10"/>
@@ -2369,23 +2369,23 @@
       <c r="A138" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="4">
         <v>1.0</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="4">
         <v>8.0</v>
       </c>
       <c r="F140" s="8"/>
@@ -2393,7 +2393,7 @@
       <c r="H140" s="8"/>
     </row>
     <row r="141">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B141" s="30">
@@ -2401,10 +2401,10 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="4">
         <v>4.0</v>
       </c>
     </row>
@@ -2412,7 +2412,7 @@
       <c r="A143" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="4">
         <v>3.0</v>
       </c>
       <c r="F143" s="8"/>
@@ -2420,18 +2420,18 @@
       <c r="H143" s="8"/>
     </row>
     <row r="144">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="4">
         <v>71.0</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="4">
         <v>0.0</v>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       <c r="A146" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="4">
         <v>19.0</v>
       </c>
       <c r="F146" s="8"/>
@@ -2450,7 +2450,7 @@
       <c r="A147" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="4">
         <v>17.0</v>
       </c>
       <c r="F147" s="8"/>
@@ -2461,7 +2461,7 @@
       <c r="A148" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="4">
         <v>58.0</v>
       </c>
       <c r="F148" s="8"/>
@@ -2469,10 +2469,10 @@
       <c r="H148" s="8"/>
     </row>
     <row r="149">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="4">
         <v>1.0</v>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       <c r="A150" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="4">
         <v>10.0</v>
       </c>
       <c r="F150" s="8"/>
@@ -2491,23 +2491,23 @@
       <c r="A151" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="4">
         <v>101.0</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="4">
         <v>119.0</v>
       </c>
       <c r="D153" s="10"/>
@@ -2517,10 +2517,10 @@
       <c r="H153" s="8"/>
     </row>
     <row r="154">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="4">
         <v>1.0</v>
       </c>
       <c r="D154" s="10"/>
@@ -2530,18 +2530,18 @@
       <c r="H154" s="8"/>
     </row>
     <row r="155">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="4">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="4">
         <v>63.0</v>
       </c>
       <c r="D156" s="10"/>
@@ -2551,18 +2551,18 @@
       <c r="H156" s="8"/>
     </row>
     <row r="157">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="4">
         <v>3.0</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="4">
         <v>48.0</v>
       </c>
       <c r="F158" s="8"/>
@@ -2573,7 +2573,7 @@
       <c r="A159" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="4">
         <v>21.0</v>
       </c>
       <c r="F159" s="8"/>
@@ -2584,7 +2584,7 @@
       <c r="A160" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="4">
         <v>29.0</v>
       </c>
       <c r="F160" s="8"/>
@@ -4765,74 +4765,74 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
         <v>43647.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>43647.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
-        <v>43647.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
+    <row r="15">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
+    <row r="16">
+      <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
+    <row r="17">
+      <c r="A17" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
